--- a/Database example.xlsx
+++ b/Database example.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krishan\Documents\Schoolwork\UNIVERSITY\NWEN 304\Group_Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
   </bookViews>
@@ -122,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,8 +153,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -214,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -249,7 +272,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -426,7 +449,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
